--- a/tests/testfiles/example_method_tarsp.xlsx
+++ b/tests/testfiles/example_method_tarsp.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\sastadev\methods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E75810-3B31-409B-8908-EB9B0F89935A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926554C8-974B-46AE-ADF1-DF9D945A5C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$155</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="597">
   <si>
     <t>Item</t>
   </si>
@@ -1163,9 +1163,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>//node[@cat="pp" and node[ @rel="obj1" and node[@rel="det"] ]]</t>
-  </si>
-  <si>
     <t>//node[(@cat="ap" or @cat="advp" or @cat="np" or @cat="pp" or 
   node[@rel="vc" and (@cat="inf" or @cat="ppart")]) and parent::node[count(node[@cat or @pt!="let"])&gt;1]]</t>
   </si>
@@ -1208,9 +1205,6 @@
     <t>//node[@cat="np" and
     node[@pt="lid" and @rel="det" and @lemma="het"] and
     node[@rel="hd" and @pt="n"]]</t>
-  </si>
-  <si>
-    <t>//node[@lemma="hij" and @pt="vnw"]</t>
   </si>
   <si>
     <t>PV-loos</t>
@@ -1479,12 +1473,6 @@
   </si>
   <si>
     <t>Bijzin z Verb</t>
-  </si>
-  <si>
-    <t>special1</t>
-  </si>
-  <si>
-    <t>special2</t>
   </si>
   <si>
     <t>star2</t>
@@ -1690,12 +1678,6 @@
   </si>
   <si>
     <t>//node[@cat="np" and node[@rel="det" and @lemma="de"] and count(node)=2]</t>
-  </si>
-  <si>
-    <t>//node[(@pt="ww" and @rel="hd" and 
-           (@lemma="hebben" or @lemma="worden" or @lemma="zijn") and
-       parent::node[node[@rel="vc" and (@cat="ppart" or (@pt="ww" and @wvorm="vd"))]
-       ]) or %robusthwwvd%]</t>
   </si>
   <si>
     <t>v.u.soc.divers,vu divers,vu soc divers, DIV</t>
@@ -1902,6 +1884,39 @@
   </si>
   <si>
     <t>voslashbij</t>
+  </si>
+  <si>
+    <t>//node[@cat="pp" and node[@rel="hd"] and node[ @rel="obj1" and node[@rel="det"] ]]</t>
+  </si>
+  <si>
+    <t>//node[(@lemma="hij" or @lemma="ie")  and @pt="vnw"]</t>
+  </si>
+  <si>
+    <t>//node[@cat="whq" and node[@cat="sv1"] and count(node)=1]</t>
+  </si>
+  <si>
+    <t>//node[(@pt="ww" and @rel="hd" and 
+           (@lemma="hebben" or @lemma="worden" or @lemma="zijn") and
+       parent::node[node[@rel="vc" and ((@cat="ppart" and node[@rel="hd"]) or (@pt="ww" and @wvorm="vd"))]
+       ]) or %robusthwwvd%]</t>
+  </si>
+  <si>
+    <t>stars</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>variants</t>
+  </si>
+  <si>
+    <t>unused1</t>
+  </si>
+  <si>
+    <t>unused2</t>
+  </si>
+  <si>
+    <t>tarsp2005</t>
   </si>
 </sst>
 </file>
@@ -2319,14 +2334,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R155"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:U155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="K102" sqref="K102"/>
+      <selection pane="bottomRight" activeCell="P139" sqref="P139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2342,11 +2358,11 @@
     <col min="10" max="10" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="41.109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.21875" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="2"/>
+    <col min="13" max="19" width="16.21875" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
@@ -2381,25 +2397,34 @@
         <v>159</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>473</v>
+        <v>591</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>474</v>
+        <v>592</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>229</v>
       </c>
@@ -2413,7 +2438,7 @@
         <v>199</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>72</v>
@@ -2430,6 +2455,9 @@
       <c r="J2" s="2">
         <v>3</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>589</v>
+      </c>
       <c r="L2" s="2" t="s">
         <v>369</v>
       </c>
@@ -2437,13 +2465,13 @@
         <v>370</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>230</v>
       </c>
@@ -2469,7 +2497,7 @@
         <v>6</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>369</v>
@@ -2478,13 +2506,13 @@
         <v>369</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>231</v>
       </c>
@@ -2498,7 +2526,7 @@
         <v>199</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>65</v>
@@ -2519,10 +2547,13 @@
         <v>370</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>232</v>
       </c>
@@ -2554,13 +2585,13 @@
         <v>370</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q5" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="T5" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>233</v>
       </c>
@@ -2583,7 +2614,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>369</v>
@@ -2592,16 +2623,16 @@
         <v>370</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>234</v>
       </c>
@@ -2624,7 +2655,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>370</v>
@@ -2633,10 +2664,10 @@
         <v>370</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>235</v>
       </c>
@@ -2662,7 +2693,7 @@
         <v>4</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>370</v>
@@ -2671,10 +2702,10 @@
         <v>370</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>236</v>
       </c>
@@ -2700,7 +2731,7 @@
         <v>6</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>369</v>
@@ -2709,13 +2740,13 @@
         <v>369</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>237</v>
       </c>
@@ -2738,7 +2769,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>369</v>
@@ -2747,10 +2778,10 @@
         <v>370</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>238</v>
       </c>
@@ -2782,10 +2813,10 @@
         <v>370</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>239</v>
       </c>
@@ -2802,7 +2833,7 @@
         <v>40</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>369</v>
@@ -2814,7 +2845,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>369</v>
@@ -2823,10 +2854,10 @@
         <v>370</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>240</v>
       </c>
@@ -2858,10 +2889,10 @@
         <v>370</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>241</v>
       </c>
@@ -2887,7 +2918,7 @@
         <v>4</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>370</v>
@@ -2896,10 +2927,10 @@
         <v>370</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>242</v>
       </c>
@@ -2922,7 +2953,7 @@
         <v>4</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>369</v>
@@ -2931,10 +2962,10 @@
         <v>370</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>243</v>
       </c>
@@ -2951,7 +2982,7 @@
         <v>369</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>370</v>
@@ -2960,10 +2991,10 @@
         <v>370</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>244</v>
       </c>
@@ -2992,10 +3023,10 @@
         <v>369</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>245</v>
       </c>
@@ -3009,10 +3040,10 @@
         <v>199</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>369</v>
@@ -3030,13 +3061,13 @@
         <v>370</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>246</v>
       </c>
@@ -3047,7 +3078,7 @@
         <v>199</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>7</v>
@@ -3062,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>369</v>
@@ -3071,10 +3102,10 @@
         <v>369</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>247</v>
       </c>
@@ -3103,10 +3134,10 @@
         <v>370</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>248</v>
       </c>
@@ -3129,7 +3160,7 @@
         <v>4</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>369</v>
@@ -3138,10 +3169,10 @@
         <v>370</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>249</v>
       </c>
@@ -3164,7 +3195,7 @@
         <v>3</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>369</v>
@@ -3173,10 +3204,10 @@
         <v>370</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>250</v>
       </c>
@@ -3193,7 +3224,7 @@
         <v>49</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>369</v>
@@ -3205,7 +3236,7 @@
         <v>5</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>369</v>
@@ -3214,10 +3245,10 @@
         <v>370</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="409.6" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>251</v>
       </c>
@@ -3231,7 +3262,7 @@
         <v>199</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>28</v>
@@ -3249,7 +3280,7 @@
         <v>2</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>369</v>
@@ -3258,13 +3289,13 @@
         <v>370</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>252</v>
       </c>
@@ -3293,10 +3324,10 @@
         <v>370</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>253</v>
       </c>
@@ -3319,7 +3350,7 @@
         <v>4</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>369</v>
@@ -3328,13 +3359,13 @@
         <v>370</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>254</v>
       </c>
@@ -3357,7 +3388,7 @@
         <v>4</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>369</v>
@@ -3366,10 +3397,10 @@
         <v>370</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>255</v>
       </c>
@@ -3392,7 +3423,7 @@
         <v>5</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>369</v>
@@ -3401,10 +3432,10 @@
         <v>369</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>256</v>
       </c>
@@ -3427,7 +3458,7 @@
         <v>2</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>369</v>
@@ -3436,13 +3467,13 @@
         <v>370</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>257</v>
       </c>
@@ -3465,7 +3496,7 @@
         <v>3</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>369</v>
@@ -3474,13 +3505,13 @@
         <v>369</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q30" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="T30" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>258</v>
       </c>
@@ -3512,10 +3543,10 @@
         <v>370</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>259</v>
       </c>
@@ -3529,7 +3560,7 @@
         <v>108</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>369</v>
@@ -3541,7 +3572,7 @@
         <v>6</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>369</v>
@@ -3550,10 +3581,10 @@
         <v>370</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>260</v>
       </c>
@@ -3591,10 +3622,10 @@
         <v>370</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>261</v>
       </c>
@@ -3617,7 +3648,7 @@
         <v>6</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>369</v>
@@ -3626,10 +3657,10 @@
         <v>370</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>262</v>
       </c>
@@ -3661,10 +3692,10 @@
         <v>369</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>263</v>
       </c>
@@ -3687,7 +3718,7 @@
         <v>5</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>369</v>
@@ -3696,10 +3727,10 @@
         <v>369</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>264</v>
       </c>
@@ -3722,7 +3753,7 @@
         <v>3</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>385</v>
+        <v>588</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>369</v>
@@ -3731,10 +3762,10 @@
         <v>370</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>265</v>
       </c>
@@ -3757,10 +3788,10 @@
         <v>65</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>369</v>
@@ -3769,10 +3800,10 @@
         <v>370</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>266</v>
       </c>
@@ -3798,7 +3829,7 @@
         <v>4</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>533</v>
+        <v>590</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>369</v>
@@ -3807,10 +3838,10 @@
         <v>370</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>267</v>
       </c>
@@ -3833,7 +3864,7 @@
         <v>3</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>369</v>
@@ -3842,13 +3873,13 @@
         <v>369</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>268</v>
       </c>
@@ -3880,10 +3911,10 @@
         <v>369</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>269</v>
       </c>
@@ -3900,7 +3931,7 @@
         <v>69</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>369</v>
@@ -3918,13 +3949,13 @@
         <v>370</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q42" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="T42" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>270</v>
       </c>
@@ -3938,10 +3969,10 @@
         <v>199</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>369</v>
@@ -3953,7 +3984,7 @@
         <v>3</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>369</v>
@@ -3962,13 +3993,13 @@
         <v>370</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q43" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>271</v>
       </c>
@@ -3991,7 +4022,7 @@
         <v>3</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>369</v>
@@ -4000,10 +4031,10 @@
         <v>370</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>272</v>
       </c>
@@ -4026,7 +4057,7 @@
         <v>6</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>369</v>
@@ -4035,10 +4066,10 @@
         <v>370</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>273</v>
       </c>
@@ -4067,7 +4098,7 @@
         <v>2</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>369</v>
@@ -4076,10 +4107,10 @@
         <v>370</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>274</v>
       </c>
@@ -4102,7 +4133,7 @@
         <v>6</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>369</v>
@@ -4111,13 +4142,13 @@
         <v>370</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q47" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="T47" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>275</v>
       </c>
@@ -4131,7 +4162,7 @@
         <v>370</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>370</v>
@@ -4140,13 +4171,13 @@
         <v>370</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q48" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="T48" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>276</v>
       </c>
@@ -4178,10 +4209,10 @@
         <v>370</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>277</v>
       </c>
@@ -4204,7 +4235,7 @@
         <v>5</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>369</v>
@@ -4213,10 +4244,10 @@
         <v>370</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>278</v>
       </c>
@@ -4248,10 +4279,10 @@
         <v>370</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>279</v>
       </c>
@@ -4286,10 +4317,10 @@
         <v>370</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>280</v>
       </c>
@@ -4312,7 +4343,7 @@
         <v>6</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>369</v>
@@ -4321,10 +4352,10 @@
         <v>370</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>281</v>
       </c>
@@ -4350,7 +4381,7 @@
         <v>6</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>369</v>
@@ -4359,10 +4390,10 @@
         <v>370</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>282</v>
       </c>
@@ -4394,10 +4425,10 @@
         <v>369</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>283</v>
       </c>
@@ -4426,10 +4457,13 @@
         <v>370</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>284</v>
       </c>
@@ -4452,7 +4486,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>370</v>
@@ -4461,10 +4495,10 @@
         <v>370</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>285</v>
       </c>
@@ -4493,7 +4527,7 @@
         <v>2</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>369</v>
@@ -4502,10 +4536,10 @@
         <v>369</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>286</v>
       </c>
@@ -4534,7 +4568,7 @@
         <v>3</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>369</v>
@@ -4543,10 +4577,10 @@
         <v>370</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>287</v>
       </c>
@@ -4560,7 +4594,7 @@
         <v>199</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>67</v>
@@ -4581,10 +4615,13 @@
         <v>370</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>288</v>
       </c>
@@ -4616,13 +4653,13 @@
         <v>370</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q61" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>289</v>
       </c>
@@ -4654,13 +4691,13 @@
         <v>370</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q62" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+      <c r="T62" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>290</v>
       </c>
@@ -4692,13 +4729,13 @@
         <v>370</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q63" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+      <c r="T63" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>291</v>
       </c>
@@ -4721,7 +4758,7 @@
         <v>4</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>370</v>
@@ -4730,10 +4767,10 @@
         <v>369</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>292</v>
       </c>
@@ -4762,7 +4799,7 @@
         <v>2</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>369</v>
@@ -4771,10 +4808,10 @@
         <v>369</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>293</v>
       </c>
@@ -4803,7 +4840,7 @@
         <v>2</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>369</v>
@@ -4812,10 +4849,10 @@
         <v>369</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>294</v>
       </c>
@@ -4844,7 +4881,7 @@
         <v>3</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>369</v>
@@ -4853,10 +4890,10 @@
         <v>370</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>295</v>
       </c>
@@ -4873,7 +4910,7 @@
         <v>46</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>369</v>
@@ -4885,7 +4922,7 @@
         <v>4</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>369</v>
@@ -4894,10 +4931,10 @@
         <v>370</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>296</v>
       </c>
@@ -4926,7 +4963,7 @@
         <v>4</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>369</v>
@@ -4935,10 +4972,10 @@
         <v>369</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>297</v>
       </c>
@@ -4967,7 +5004,7 @@
         <v>3</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>369</v>
@@ -4976,10 +5013,10 @@
         <v>369</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>298</v>
       </c>
@@ -4996,7 +5033,7 @@
         <v>48</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>369</v>
@@ -5008,7 +5045,7 @@
         <v>5</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>369</v>
@@ -5017,10 +5054,10 @@
         <v>369</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>299</v>
       </c>
@@ -5034,10 +5071,10 @@
         <v>199</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>369</v>
@@ -5055,10 +5092,10 @@
         <v>370</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>300</v>
       </c>
@@ -5075,7 +5112,7 @@
         <v>194</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>369</v>
@@ -5087,7 +5124,7 @@
         <v>3</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>369</v>
@@ -5096,10 +5133,10 @@
         <v>370</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>301</v>
       </c>
@@ -5116,7 +5153,7 @@
         <v>195</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>369</v>
@@ -5134,10 +5171,13 @@
         <v>370</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+      <c r="Q74" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>302</v>
       </c>
@@ -5166,10 +5206,13 @@
         <v>370</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>303</v>
       </c>
@@ -5183,7 +5226,7 @@
         <v>197</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>369</v>
@@ -5201,13 +5244,13 @@
         <v>370</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q76" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="T76" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>304</v>
       </c>
@@ -5224,7 +5267,7 @@
         <v>51</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>369</v>
@@ -5236,7 +5279,7 @@
         <v>4</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>369</v>
@@ -5245,10 +5288,10 @@
         <v>370</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>305</v>
       </c>
@@ -5265,7 +5308,7 @@
         <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>369</v>
@@ -5277,7 +5320,7 @@
         <v>5</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>369</v>
@@ -5286,10 +5329,10 @@
         <v>370</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>306</v>
       </c>
@@ -5303,7 +5346,7 @@
         <v>141</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>369</v>
@@ -5315,7 +5358,7 @@
         <v>6</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>369</v>
@@ -5324,10 +5367,10 @@
         <v>370</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>307</v>
       </c>
@@ -5359,13 +5402,13 @@
         <v>370</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q80" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="T80" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>308</v>
       </c>
@@ -5388,7 +5431,7 @@
         <v>4</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>369</v>
@@ -5397,10 +5440,10 @@
         <v>370</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>309</v>
       </c>
@@ -5414,7 +5457,7 @@
         <v>152</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>369</v>
@@ -5426,7 +5469,7 @@
         <v>4</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>369</v>
@@ -5435,10 +5478,10 @@
         <v>370</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>310</v>
       </c>
@@ -5461,10 +5504,10 @@
         <v>370</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>311</v>
       </c>
@@ -5499,10 +5542,13 @@
         <v>370</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+      <c r="Q84" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>312</v>
       </c>
@@ -5531,10 +5577,10 @@
         <v>370</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>313</v>
       </c>
@@ -5563,10 +5609,10 @@
         <v>370</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>314</v>
       </c>
@@ -5595,10 +5641,10 @@
         <v>370</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" ht="216" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" ht="216" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>315</v>
       </c>
@@ -5609,10 +5655,10 @@
         <v>199</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>369</v>
@@ -5624,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>369</v>
@@ -5633,10 +5679,10 @@
         <v>370</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>316</v>
       </c>
@@ -5647,7 +5693,7 @@
         <v>199</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>369</v>
@@ -5659,7 +5705,7 @@
         <v>1</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>369</v>
@@ -5668,10 +5714,10 @@
         <v>370</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>317</v>
       </c>
@@ -5682,10 +5728,10 @@
         <v>199</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>369</v>
@@ -5703,12 +5749,12 @@
         <v>370</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>2</v>
@@ -5717,22 +5763,22 @@
         <v>199</v>
       </c>
       <c r="E91" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I91" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>404</v>
-      </c>
       <c r="J91" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>369</v>
@@ -5741,10 +5787,10 @@
         <v>370</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>318</v>
       </c>
@@ -5758,7 +5804,7 @@
         <v>369</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>370</v>
@@ -5767,10 +5813,10 @@
         <v>370</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>319</v>
       </c>
@@ -5787,7 +5833,7 @@
         <v>61</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>369</v>
@@ -5799,7 +5845,7 @@
         <v>6</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>369</v>
@@ -5808,10 +5854,10 @@
         <v>369</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>320</v>
       </c>
@@ -5846,13 +5892,13 @@
         <v>369</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q94" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="T94" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>321</v>
       </c>
@@ -5869,7 +5915,7 @@
         <v>47</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>369</v>
@@ -5881,7 +5927,7 @@
         <v>5</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>369</v>
@@ -5890,10 +5936,10 @@
         <v>369</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>322</v>
       </c>
@@ -5916,7 +5962,7 @@
         <v>3</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="L96" s="2" t="s">
         <v>370</v>
@@ -5925,10 +5971,10 @@
         <v>369</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>323</v>
       </c>
@@ -5942,13 +5988,13 @@
         <v>369</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="L97" s="3" t="s">
         <v>369</v>
@@ -5957,10 +6003,10 @@
         <v>370</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>324</v>
       </c>
@@ -5989,10 +6035,13 @@
         <v>370</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+      <c r="Q98" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>325</v>
       </c>
@@ -6003,7 +6052,7 @@
         <v>201</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>144</v>
@@ -6027,13 +6076,13 @@
         <v>370</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>326</v>
       </c>
@@ -6047,7 +6096,7 @@
         <v>155</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>369</v>
@@ -6059,7 +6108,7 @@
         <v>6</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L100" s="2" t="s">
         <v>369</v>
@@ -6068,10 +6117,10 @@
         <v>369</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>327</v>
       </c>
@@ -6094,7 +6143,7 @@
         <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>369</v>
@@ -6103,10 +6152,10 @@
         <v>370</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>328</v>
       </c>
@@ -6129,7 +6178,7 @@
         <v>4</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>369</v>
@@ -6138,10 +6187,10 @@
         <v>370</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>329</v>
       </c>
@@ -6176,10 +6225,10 @@
         <v>370</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>330</v>
       </c>
@@ -6190,10 +6239,10 @@
         <v>201</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>369</v>
@@ -6211,16 +6260,19 @@
         <v>370</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="Q104" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="T104" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>331</v>
       </c>
@@ -6234,22 +6286,22 @@
         <v>369</v>
       </c>
       <c r="K105" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="L105" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="N105" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="T105" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="L105" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="M105" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N105" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q105" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>332</v>
       </c>
@@ -6266,7 +6318,7 @@
         <v>74</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>369</v>
@@ -6278,7 +6330,7 @@
         <v>4</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>369</v>
@@ -6287,13 +6339,13 @@
         <v>370</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q106" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="T106" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>333</v>
       </c>
@@ -6319,7 +6371,7 @@
         <v>5</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>369</v>
@@ -6328,13 +6380,13 @@
         <v>370</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q107" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+      <c r="T107" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>334</v>
       </c>
@@ -6360,7 +6412,7 @@
         <v>6</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>369</v>
@@ -6369,16 +6421,16 @@
         <v>369</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q108" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="T108" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>335</v>
       </c>
@@ -6401,7 +6453,7 @@
         <v>6</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>369</v>
@@ -6410,10 +6462,10 @@
         <v>370</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>336</v>
       </c>
@@ -6443,10 +6495,13 @@
         <v>370</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+      <c r="Q110" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>337</v>
       </c>
@@ -6469,7 +6524,7 @@
         <v>4</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>371</v>
+        <v>587</v>
       </c>
       <c r="L111" s="2" t="s">
         <v>369</v>
@@ -6478,10 +6533,10 @@
         <v>369</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>338</v>
       </c>
@@ -6505,7 +6560,7 @@
         <v>3</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>369</v>
@@ -6514,13 +6569,13 @@
         <v>370</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q112" s="3" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+      <c r="T112" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>339</v>
       </c>
@@ -6552,10 +6607,10 @@
         <v>370</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>340</v>
       </c>
@@ -6566,7 +6621,7 @@
         <v>199</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>369</v>
@@ -6587,10 +6642,10 @@
         <v>369</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>341</v>
       </c>
@@ -6613,7 +6668,7 @@
         <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="L115" s="3" t="s">
         <v>369</v>
@@ -6622,13 +6677,13 @@
         <v>370</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q115" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+      <c r="T115" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>342</v>
       </c>
@@ -6657,7 +6712,7 @@
         <v>3</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L116" s="2" t="s">
         <v>369</v>
@@ -6666,10 +6721,10 @@
         <v>370</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>343</v>
       </c>
@@ -6677,7 +6732,7 @@
         <v>199</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
@@ -6694,10 +6749,10 @@
         <v>370</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>344</v>
       </c>
@@ -6719,10 +6774,10 @@
         <v>370</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>345</v>
       </c>
@@ -6754,13 +6809,13 @@
         <v>370</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q119" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="T119" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>346</v>
       </c>
@@ -6777,7 +6832,7 @@
         <v>42</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>369</v>
@@ -6789,7 +6844,7 @@
         <v>3</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>369</v>
@@ -6798,10 +6853,10 @@
         <v>370</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>347</v>
       </c>
@@ -6824,7 +6879,7 @@
         <v>4</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>369</v>
@@ -6833,10 +6888,10 @@
         <v>370</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>348</v>
       </c>
@@ -6859,7 +6914,7 @@
         <v>3</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="L122" s="2" t="s">
         <v>370</v>
@@ -6868,10 +6923,10 @@
         <v>369</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>349</v>
       </c>
@@ -6903,10 +6958,10 @@
         <v>369</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>350</v>
       </c>
@@ -6935,7 +6990,7 @@
         <v>4</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="L124" s="2" t="s">
         <v>369</v>
@@ -6944,10 +6999,10 @@
         <v>370</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>351</v>
       </c>
@@ -6976,7 +7031,7 @@
         <v>5</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="L125" s="2" t="s">
         <v>369</v>
@@ -6985,13 +7040,13 @@
         <v>370</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q125" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+      <c r="T125" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>352</v>
       </c>
@@ -7020,7 +7075,7 @@
         <v>6</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="L126" s="2" t="s">
         <v>369</v>
@@ -7029,10 +7084,10 @@
         <v>369</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>353</v>
       </c>
@@ -7052,7 +7107,7 @@
         <v>188</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L127" s="3" t="s">
         <v>370</v>
@@ -7061,13 +7116,13 @@
         <v>370</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q127" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="T127" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>354</v>
       </c>
@@ -7090,7 +7145,7 @@
         <v>6</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L128" s="2" t="s">
         <v>369</v>
@@ -7099,10 +7154,10 @@
         <v>370</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>355</v>
       </c>
@@ -7131,10 +7186,10 @@
         <v>370</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>356</v>
       </c>
@@ -7163,7 +7218,7 @@
         <v>4</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>369</v>
@@ -7172,10 +7227,10 @@
         <v>370</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>357</v>
       </c>
@@ -7204,7 +7259,7 @@
         <v>5</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>369</v>
@@ -7213,10 +7268,10 @@
         <v>370</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>358</v>
       </c>
@@ -7233,7 +7288,7 @@
         <v>84</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>8</v>
@@ -7248,7 +7303,7 @@
         <v>6</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="L132" s="2" t="s">
         <v>369</v>
@@ -7257,13 +7312,13 @@
         <v>370</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>359</v>
       </c>
@@ -7277,7 +7332,7 @@
         <v>107</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G133" s="10"/>
       <c r="H133" s="2" t="s">
@@ -7290,7 +7345,7 @@
         <v>6</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L133" s="2" t="s">
         <v>369</v>
@@ -7299,10 +7354,10 @@
         <v>370</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>360</v>
       </c>
@@ -7320,7 +7375,7 @@
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="10" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>369</v>
@@ -7338,10 +7393,10 @@
         <v>370</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="135" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>361</v>
       </c>
@@ -7371,7 +7426,7 @@
         <v>3</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="L135" s="2" t="s">
         <v>369</v>
@@ -7380,10 +7435,10 @@
         <v>370</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>362</v>
       </c>
@@ -7400,7 +7455,7 @@
         <v>43</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>369</v>
@@ -7418,10 +7473,10 @@
         <v>370</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>363</v>
       </c>
@@ -7444,7 +7499,7 @@
         <v>4</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L137" s="2" t="s">
         <v>369</v>
@@ -7453,10 +7508,10 @@
         <v>370</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>364</v>
       </c>
@@ -7482,13 +7537,13 @@
         <v>370</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q138" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="139" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+      <c r="T138" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>365</v>
       </c>
@@ -7511,7 +7566,7 @@
         <v>7</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L139" s="2" t="s">
         <v>369</v>
@@ -7520,10 +7575,13 @@
         <v>370</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="140" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+      <c r="Q139" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>366</v>
       </c>
@@ -7546,7 +7604,7 @@
         <v>1</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>369</v>
@@ -7555,10 +7613,10 @@
         <v>369</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="141" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>367</v>
       </c>
@@ -7590,15 +7648,15 @@
         <v>370</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q141" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="T141" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>85</v>
@@ -7607,221 +7665,221 @@
         <v>200</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>369</v>
       </c>
       <c r="I142" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="M142" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="N142" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="T142" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="L142" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="M142" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N142" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q142" s="12" t="s">
+    </row>
+    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="L143" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="M143" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="N143" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="T143" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="N144" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="T144" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="L145" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="M145" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="N145" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="T145" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="K146" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="L146" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="M146" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="N146" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="T146" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="J147" s="2" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A143" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="J143" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="K143" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="L143" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="M143" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N143" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="Q143" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A144" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I144" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="K144" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="L144" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="M144" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N144" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="Q144" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A145" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I145" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="K145" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="L145" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="M145" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N145" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="Q145" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A146" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I146" s="2" t="s">
+      <c r="K147" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="L147" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="M147" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="N147" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="J146" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="K146" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="L146" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="M146" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N146" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="Q146" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A147" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I147" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="J147" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="K147" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="L147" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="M147" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N147" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A148" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I148" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="J148" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="F148" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I148" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="J148" s="2" t="s">
-        <v>431</v>
-      </c>
       <c r="L148" s="2" t="s">
         <v>369</v>
       </c>
@@ -7829,28 +7887,28 @@
         <v>370</v>
       </c>
       <c r="N148" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A149" s="2" t="s">
+      <c r="B149" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="K149" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="I149" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="K149" s="2" t="s">
-        <v>466</v>
-      </c>
       <c r="L149" s="2" t="s">
         <v>370</v>
       </c>
@@ -7858,159 +7916,162 @@
         <v>369</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="Q149" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
+        <v>461</v>
+      </c>
+      <c r="T149" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E150" s="2" t="s">
+      <c r="H150" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="L150" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="M150" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="N150" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="J151" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="K151" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="L151" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="M151" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="N151" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="J152" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="K152" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="L152" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="M152" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="N152" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="J153" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="K153" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="L153" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="M153" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="N153" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q153" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="H150" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I150" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="J150" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="B154" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="K154" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="L150" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="M150" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N150" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A151" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="H151" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I151" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="J151" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="K151" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="L151" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="M151" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N151" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A152" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I152" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="J152" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="K152" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="L152" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="M152" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N152" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A153" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="H153" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I153" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="J153" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="K153" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="L153" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="M153" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N153" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A154" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="H154" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I154" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="K154" s="2" t="s">
-        <v>497</v>
-      </c>
       <c r="L154" s="2" t="s">
         <v>369</v>
       </c>
@@ -8018,24 +8079,24 @@
         <v>370</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>369</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="L155" s="2" t="s">
         <v>369</v>
@@ -8044,11 +8105,17 @@
         <v>370</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R155" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:U155" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="7"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N146">
     <sortCondition ref="E2:E146"/>
     <sortCondition ref="I2:I146"/>
